--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R3452e6cffea84288"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R218c33ef43b44774"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R218c33ef43b44774"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R2d18900c66924f05"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R2d18900c66924f05"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R1bcf2684c511469c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R1bcf2684c511469c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R86ba3b3cb4bf46bd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R86ba3b3cb4bf46bd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Rc6edb20ba41a4c9b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Rc6edb20ba41a4c9b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Rdfd433e1dbc2445d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Rdfd433e1dbc2445d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Rbe091e32d190460e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Rbe091e32d190460e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Ra441cfc338ce4a31"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Ra441cfc338ce4a31"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Rfb36058450e64fd6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Rfb36058450e64fd6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R070195c0bcca4a73"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R070195c0bcca4a73"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Rd399c2c6f0634276"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Rd399c2c6f0634276"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R40d57d4e658f4f79"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/059_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R40d57d4e658f4f79"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Rfc972223e95a4cd9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
